--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sdc2-Ptprj.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sdc2-Ptprj.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Ptprj</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.16990234270946</v>
+        <v>3.057109</v>
       </c>
       <c r="H2">
-        <v>2.16990234270946</v>
+        <v>9.171327</v>
       </c>
       <c r="I2">
-        <v>0.01962055177520146</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="J2">
-        <v>0.01962055177520146</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.47952175332741</v>
+        <v>1.815493333333333</v>
       </c>
       <c r="N2">
-        <v>1.47952175332741</v>
+        <v>5.44648</v>
       </c>
       <c r="O2">
-        <v>0.02204100383070096</v>
+        <v>0.02449420924905278</v>
       </c>
       <c r="P2">
-        <v>0.02204100383070096</v>
+        <v>0.02449420924905277</v>
       </c>
       <c r="Q2">
-        <v>3.210417718634755</v>
+        <v>5.550161008773333</v>
       </c>
       <c r="R2">
-        <v>3.210417718634755</v>
+        <v>49.95144907896</v>
       </c>
       <c r="S2">
-        <v>0.000432456656837682</v>
+        <v>0.0006601073311295459</v>
       </c>
       <c r="T2">
-        <v>0.000432456656837682</v>
+        <v>0.0006601073311295458</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.16990234270946</v>
+        <v>3.057109</v>
       </c>
       <c r="H3">
-        <v>2.16990234270946</v>
+        <v>9.171327</v>
       </c>
       <c r="I3">
-        <v>0.01962055177520146</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="J3">
-        <v>0.01962055177520146</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.6541007558785</v>
+        <v>5.684019666666667</v>
       </c>
       <c r="N3">
-        <v>5.6541007558785</v>
+        <v>17.052059</v>
       </c>
       <c r="O3">
-        <v>0.08423131065103646</v>
+        <v>0.07668745708663094</v>
       </c>
       <c r="P3">
-        <v>0.08423131065103646</v>
+        <v>0.07668745708663093</v>
       </c>
       <c r="Q3">
-        <v>12.26884647609609</v>
+        <v>17.37666767914367</v>
       </c>
       <c r="R3">
-        <v>12.26884647609609</v>
+        <v>156.390009112293</v>
       </c>
       <c r="S3">
-        <v>0.001652664791721739</v>
+        <v>0.00206669062527606</v>
       </c>
       <c r="T3">
-        <v>0.001652664791721739</v>
+        <v>0.002066690625276059</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.16990234270946</v>
+        <v>3.057109</v>
       </c>
       <c r="H4">
-        <v>2.16990234270946</v>
+        <v>9.171327</v>
       </c>
       <c r="I4">
-        <v>0.01962055177520146</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="J4">
-        <v>0.01962055177520146</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>56.3954542348519</v>
+        <v>61.37607633333332</v>
       </c>
       <c r="N4">
-        <v>56.3954542348519</v>
+        <v>184.128229</v>
       </c>
       <c r="O4">
-        <v>0.8401447427379729</v>
+        <v>0.8280715929891429</v>
       </c>
       <c r="P4">
-        <v>0.8401447427379729</v>
+        <v>0.8280715929891428</v>
       </c>
       <c r="Q4">
-        <v>122.3726282623693</v>
+        <v>187.6333553433203</v>
       </c>
       <c r="R4">
-        <v>122.3726282623693</v>
+        <v>1688.700198089883</v>
       </c>
       <c r="S4">
-        <v>0.01648410342355371</v>
+        <v>0.02231613699688603</v>
       </c>
       <c r="T4">
-        <v>0.01648410342355371</v>
+        <v>0.02231613699688603</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.16990234270946</v>
+        <v>3.057109</v>
       </c>
       <c r="H5">
-        <v>2.16990234270946</v>
+        <v>9.171327</v>
       </c>
       <c r="I5">
-        <v>0.01962055177520146</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="J5">
-        <v>0.01962055177520146</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.5968021266033</v>
+        <v>5.243698</v>
       </c>
       <c r="N5">
-        <v>3.5968021266033</v>
+        <v>15.731094</v>
       </c>
       <c r="O5">
-        <v>0.05358294278028983</v>
+        <v>0.07074674067517345</v>
       </c>
       <c r="P5">
-        <v>0.05358294278028983</v>
+        <v>0.07074674067517343</v>
       </c>
       <c r="Q5">
-        <v>7.804709360778868</v>
+        <v>16.030556349082</v>
       </c>
       <c r="R5">
-        <v>7.804709360778868</v>
+        <v>144.275007141738</v>
       </c>
       <c r="S5">
-        <v>0.001051326903088334</v>
+        <v>0.001906591133372015</v>
       </c>
       <c r="T5">
-        <v>0.001051326903088334</v>
+        <v>0.001906591133372015</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>88.76509624945309</v>
+        <v>89.02755999999999</v>
       </c>
       <c r="H6">
-        <v>88.76509624945309</v>
+        <v>267.08268</v>
       </c>
       <c r="I6">
-        <v>0.8026260594836044</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="J6">
-        <v>0.8026260594836044</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.47952175332741</v>
+        <v>1.815493333333333</v>
       </c>
       <c r="N6">
-        <v>1.47952175332741</v>
+        <v>5.44648</v>
       </c>
       <c r="O6">
-        <v>0.02204100383070096</v>
+        <v>0.02449420924905278</v>
       </c>
       <c r="P6">
-        <v>0.02204100383070096</v>
+        <v>0.02449420924905277</v>
       </c>
       <c r="Q6">
-        <v>131.3298908372672</v>
+        <v>161.6289416629333</v>
       </c>
       <c r="R6">
-        <v>131.3298908372672</v>
+        <v>1454.6604749664</v>
       </c>
       <c r="S6">
-        <v>0.01769068405169854</v>
+        <v>0.01922330706185992</v>
       </c>
       <c r="T6">
-        <v>0.01769068405169854</v>
+        <v>0.01922330706185992</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>88.76509624945309</v>
+        <v>89.02755999999999</v>
       </c>
       <c r="H7">
-        <v>88.76509624945309</v>
+        <v>267.08268</v>
       </c>
       <c r="I7">
-        <v>0.8026260594836044</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="J7">
-        <v>0.8026260594836044</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.6541007558785</v>
+        <v>5.684019666666667</v>
       </c>
       <c r="N7">
-        <v>5.6541007558785</v>
+        <v>17.052059</v>
       </c>
       <c r="O7">
-        <v>0.08423131065103646</v>
+        <v>0.07668745708663094</v>
       </c>
       <c r="P7">
-        <v>0.08423131065103646</v>
+        <v>0.07668745708663093</v>
       </c>
       <c r="Q7">
-        <v>501.8867977996605</v>
+        <v>506.0344019153467</v>
       </c>
       <c r="R7">
-        <v>501.8867977996605</v>
+        <v>4554.309617238119</v>
       </c>
       <c r="S7">
-        <v>0.06760624495298076</v>
+        <v>0.0601851041762665</v>
       </c>
       <c r="T7">
-        <v>0.06760624495298076</v>
+        <v>0.06018510417626649</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>88.76509624945309</v>
+        <v>89.02755999999999</v>
       </c>
       <c r="H8">
-        <v>88.76509624945309</v>
+        <v>267.08268</v>
       </c>
       <c r="I8">
-        <v>0.8026260594836044</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="J8">
-        <v>0.8026260594836044</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>56.3954542348519</v>
+        <v>61.37607633333332</v>
       </c>
       <c r="N8">
-        <v>56.3954542348519</v>
+        <v>184.128229</v>
       </c>
       <c r="O8">
-        <v>0.8401447427379729</v>
+        <v>0.8280715929891429</v>
       </c>
       <c r="P8">
-        <v>0.8401447427379729</v>
+        <v>0.8280715929891428</v>
       </c>
       <c r="Q8">
-        <v>5005.947923188256</v>
+        <v>5464.162318330412</v>
       </c>
       <c r="R8">
-        <v>5005.947923188256</v>
+        <v>49177.46086497371</v>
       </c>
       <c r="S8">
-        <v>0.6743220642596458</v>
+        <v>0.6498790934371299</v>
       </c>
       <c r="T8">
-        <v>0.6743220642596458</v>
+        <v>0.6498790934371298</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>88.76509624945309</v>
+        <v>89.02755999999999</v>
       </c>
       <c r="H9">
-        <v>88.76509624945309</v>
+        <v>267.08268</v>
       </c>
       <c r="I9">
-        <v>0.8026260594836044</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="J9">
-        <v>0.8026260594836044</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.5968021266033</v>
+        <v>5.243698</v>
       </c>
       <c r="N9">
-        <v>3.5968021266033</v>
+        <v>15.731094</v>
       </c>
       <c r="O9">
-        <v>0.05358294278028983</v>
+        <v>0.07074674067517345</v>
       </c>
       <c r="P9">
-        <v>0.05358294278028983</v>
+        <v>0.07074674067517343</v>
       </c>
       <c r="Q9">
-        <v>319.2704869581795</v>
+        <v>466.83363831688</v>
       </c>
       <c r="R9">
-        <v>319.2704869581795</v>
+        <v>4201.502744851919</v>
       </c>
       <c r="S9">
-        <v>0.04300706621927948</v>
+        <v>0.05552276890413298</v>
       </c>
       <c r="T9">
-        <v>0.04300706621927948</v>
+        <v>0.05552276890413297</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>19.6583408597897</v>
+        <v>0.184005</v>
       </c>
       <c r="H10">
-        <v>19.6583408597897</v>
+        <v>0.5520149999999999</v>
       </c>
       <c r="I10">
-        <v>0.177753388741194</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="J10">
-        <v>0.177753388741194</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.47952175332741</v>
+        <v>1.815493333333333</v>
       </c>
       <c r="N10">
-        <v>1.47952175332741</v>
+        <v>5.44648</v>
       </c>
       <c r="O10">
-        <v>0.02204100383070096</v>
+        <v>0.02449420924905278</v>
       </c>
       <c r="P10">
-        <v>0.02204100383070096</v>
+        <v>0.02449420924905277</v>
       </c>
       <c r="Q10">
-        <v>29.08494293638392</v>
+        <v>0.3340598507999999</v>
       </c>
       <c r="R10">
-        <v>29.08494293638392</v>
+        <v>3.0065386572</v>
       </c>
       <c r="S10">
-        <v>0.003917863122164736</v>
+        <v>3.973134404579362E-05</v>
       </c>
       <c r="T10">
-        <v>0.003917863122164736</v>
+        <v>3.973134404579361E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>19.6583408597897</v>
+        <v>0.184005</v>
       </c>
       <c r="H11">
-        <v>19.6583408597897</v>
+        <v>0.5520149999999999</v>
       </c>
       <c r="I11">
-        <v>0.177753388741194</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="J11">
-        <v>0.177753388741194</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.6541007558785</v>
+        <v>5.684019666666667</v>
       </c>
       <c r="N11">
-        <v>5.6541007558785</v>
+        <v>17.052059</v>
       </c>
       <c r="O11">
-        <v>0.08423131065103646</v>
+        <v>0.07668745708663094</v>
       </c>
       <c r="P11">
-        <v>0.08423131065103646</v>
+        <v>0.07668745708663093</v>
       </c>
       <c r="Q11">
-        <v>111.1502399146541</v>
+        <v>1.045888038765</v>
       </c>
       <c r="R11">
-        <v>111.1502399146541</v>
+        <v>9.412992348884998</v>
       </c>
       <c r="S11">
-        <v>0.01497240090633396</v>
+        <v>0.0001243924925489805</v>
       </c>
       <c r="T11">
-        <v>0.01497240090633396</v>
+        <v>0.0001243924925489805</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>19.6583408597897</v>
+        <v>0.184005</v>
       </c>
       <c r="H12">
-        <v>19.6583408597897</v>
+        <v>0.5520149999999999</v>
       </c>
       <c r="I12">
-        <v>0.177753388741194</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="J12">
-        <v>0.177753388741194</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>56.3954542348519</v>
+        <v>61.37607633333332</v>
       </c>
       <c r="N12">
-        <v>56.3954542348519</v>
+        <v>184.128229</v>
       </c>
       <c r="O12">
-        <v>0.8401447427379729</v>
+        <v>0.8280715929891429</v>
       </c>
       <c r="P12">
-        <v>0.8401447427379729</v>
+        <v>0.8280715929891428</v>
       </c>
       <c r="Q12">
-        <v>1108.641062291389</v>
+        <v>11.293504925715</v>
       </c>
       <c r="R12">
-        <v>1108.641062291389</v>
+        <v>101.641544331435</v>
       </c>
       <c r="S12">
-        <v>0.1493385750547734</v>
+        <v>0.001343190834252889</v>
       </c>
       <c r="T12">
-        <v>0.1493385750547734</v>
+        <v>0.001343190834252888</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.184005</v>
+      </c>
+      <c r="H13">
+        <v>0.5520149999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.0016220709001794</v>
+      </c>
+      <c r="J13">
+        <v>0.0016220709001794</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.243698</v>
+      </c>
+      <c r="N13">
+        <v>15.731094</v>
+      </c>
+      <c r="O13">
+        <v>0.07074674067517345</v>
+      </c>
+      <c r="P13">
+        <v>0.07074674067517343</v>
+      </c>
+      <c r="Q13">
+        <v>0.9648666504899999</v>
+      </c>
+      <c r="R13">
+        <v>8.683799854409999</v>
+      </c>
+      <c r="S13">
+        <v>0.0001147562293317372</v>
+      </c>
+      <c r="T13">
+        <v>0.0001147562293317371</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>21.16964733333333</v>
+      </c>
+      <c r="H14">
+        <v>63.508942</v>
+      </c>
+      <c r="I14">
+        <v>0.1866181294337677</v>
+      </c>
+      <c r="J14">
+        <v>0.1866181294337677</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.815493333333333</v>
+      </c>
+      <c r="N14">
+        <v>5.44648</v>
+      </c>
+      <c r="O14">
+        <v>0.02449420924905278</v>
+      </c>
+      <c r="P14">
+        <v>0.02449420924905277</v>
+      </c>
+      <c r="Q14">
+        <v>38.43335360268445</v>
+      </c>
+      <c r="R14">
+        <v>345.90018242416</v>
+      </c>
+      <c r="S14">
+        <v>0.004571063512017522</v>
+      </c>
+      <c r="T14">
+        <v>0.004571063512017521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>21.16964733333333</v>
+      </c>
+      <c r="H15">
+        <v>63.508942</v>
+      </c>
+      <c r="I15">
+        <v>0.1866181294337677</v>
+      </c>
+      <c r="J15">
+        <v>0.1866181294337677</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.684019666666667</v>
+      </c>
+      <c r="N15">
+        <v>17.052059</v>
+      </c>
+      <c r="O15">
+        <v>0.07668745708663094</v>
+      </c>
+      <c r="P15">
+        <v>0.07668745708663093</v>
+      </c>
+      <c r="Q15">
+        <v>120.3286917790642</v>
+      </c>
+      <c r="R15">
+        <v>1082.958226011578</v>
+      </c>
+      <c r="S15">
+        <v>0.0143112697925394</v>
+      </c>
+      <c r="T15">
+        <v>0.0143112697925394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>19.6583408597897</v>
-      </c>
-      <c r="H13">
-        <v>19.6583408597897</v>
-      </c>
-      <c r="I13">
-        <v>0.177753388741194</v>
-      </c>
-      <c r="J13">
-        <v>0.177753388741194</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.5968021266033</v>
-      </c>
-      <c r="N13">
-        <v>3.5968021266033</v>
-      </c>
-      <c r="O13">
-        <v>0.05358294278028983</v>
-      </c>
-      <c r="P13">
-        <v>0.05358294278028983</v>
-      </c>
-      <c r="Q13">
-        <v>70.70716220998413</v>
-      </c>
-      <c r="R13">
-        <v>70.70716220998413</v>
-      </c>
-      <c r="S13">
-        <v>0.009524549657922016</v>
-      </c>
-      <c r="T13">
-        <v>0.009524549657922016</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>21.16964733333333</v>
+      </c>
+      <c r="H16">
+        <v>63.508942</v>
+      </c>
+      <c r="I16">
+        <v>0.1866181294337677</v>
+      </c>
+      <c r="J16">
+        <v>0.1866181294337677</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>61.37607633333332</v>
+      </c>
+      <c r="N16">
+        <v>184.128229</v>
+      </c>
+      <c r="O16">
+        <v>0.8280715929891429</v>
+      </c>
+      <c r="P16">
+        <v>0.8280715929891428</v>
+      </c>
+      <c r="Q16">
+        <v>1299.309890680413</v>
+      </c>
+      <c r="R16">
+        <v>11693.78901612372</v>
+      </c>
+      <c r="S16">
+        <v>0.1545331717208741</v>
+      </c>
+      <c r="T16">
+        <v>0.1545331717208741</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>21.16964733333333</v>
+      </c>
+      <c r="H17">
+        <v>63.508942</v>
+      </c>
+      <c r="I17">
+        <v>0.1866181294337677</v>
+      </c>
+      <c r="J17">
+        <v>0.1866181294337677</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.243698</v>
+      </c>
+      <c r="N17">
+        <v>15.731094</v>
+      </c>
+      <c r="O17">
+        <v>0.07074674067517345</v>
+      </c>
+      <c r="P17">
+        <v>0.07074674067517343</v>
+      </c>
+      <c r="Q17">
+        <v>111.0072373825053</v>
+      </c>
+      <c r="R17">
+        <v>999.065136442548</v>
+      </c>
+      <c r="S17">
+        <v>0.01320262440833672</v>
+      </c>
+      <c r="T17">
+        <v>0.01320262440833671</v>
       </c>
     </row>
   </sheetData>
